--- a/ADMIN_LOGS/moumi_log.xlsx
+++ b/ADMIN_LOGS/moumi_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,6 +473,56 @@
         <v>600</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-10-21 20:45:54</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>moumi</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Withdraw</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12344</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-10-21 20:46:47</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>moumi</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12344</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ADMIN_LOGS/moumi_log.xlsx
+++ b/ADMIN_LOGS/moumi_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,131 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-10-22 11:44:41</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>moumi</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>123456789</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-10-22 11:45:18</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>moumi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>123456789</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-10-22 11:45:34</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>moumi</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Withdraw</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>123456789</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-10-22 11:56:47</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>moumi</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-10-22 13:36:13</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Moumi</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>123456789</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ADMIN_LOGS/moumi_log.xlsx
+++ b/ADMIN_LOGS/moumi_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -648,6 +648,31 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-10-31 19:50:34</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Moumi</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>New Account</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>541204</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>50000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
